--- a/Resultados/asalarizacion.xlsx
+++ b/Resultados/asalarizacion.xlsx
@@ -57,6 +57,9 @@
     <t xml:space="preserve">FR</t>
   </si>
   <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
     <t xml:space="preserve">GR</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -738,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.99169475362567</v>
+        <v>0.996493109022649</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00830524637432961</v>
+        <v>0.00350689097735069</v>
       </c>
     </row>
     <row r="21">
@@ -755,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.966830932486</v>
+        <v>0.977845985134714</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0331690675139995</v>
+        <v>0.0221540148652865</v>
       </c>
     </row>
     <row r="22">
@@ -772,10 +772,10 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.77047638909249</v>
+        <v>0.865798846102843</v>
       </c>
       <c r="E22" t="n">
-        <v>0.22952361090751</v>
+        <v>0.134201153897157</v>
       </c>
     </row>
     <row r="23">
@@ -789,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.996058557334915</v>
+        <v>0.99169475362567</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00394144266508456</v>
+        <v>0.00830524637432961</v>
       </c>
     </row>
     <row r="24">
@@ -806,10 +806,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.959276453903265</v>
+        <v>0.966830932486</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0407235460967346</v>
+        <v>0.0331690675139995</v>
       </c>
     </row>
     <row r="25">
@@ -823,10 +823,10 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>0.767033977138601</v>
+        <v>0.77047638909249</v>
       </c>
       <c r="E25" t="n">
-        <v>0.232966022861399</v>
+        <v>0.22952361090751</v>
       </c>
     </row>
     <row r="26">
@@ -840,10 +840,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.988391260853738</v>
+        <v>0.996058557334915</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0116087391462623</v>
+        <v>0.00394144266508456</v>
       </c>
     </row>
     <row r="27">
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>0.936393402681312</v>
+        <v>0.959276453903265</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0636065973186876</v>
+        <v>0.0407235460967346</v>
       </c>
     </row>
     <row r="28">
@@ -874,10 +874,10 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.811271278482673</v>
+        <v>0.767033977138601</v>
       </c>
       <c r="E28" t="n">
-        <v>0.188728721517327</v>
+        <v>0.232966022861399</v>
       </c>
     </row>
     <row r="29">
@@ -891,10 +891,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.988391260853738</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.0116087391462623</v>
       </c>
     </row>
     <row r="30">
@@ -908,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.936393402681312</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.0636065973186876</v>
       </c>
     </row>
     <row r="31">
@@ -925,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.854144364485067</v>
+        <v>0.811271278482673</v>
       </c>
       <c r="E31" t="n">
-        <v>0.145855635514933</v>
+        <v>0.188728721517327</v>
       </c>
     </row>
     <row r="32">
@@ -942,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.996493109022649</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00350689097735069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>0.977845985134714</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0221540148652865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -976,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>0.865798846102843</v>
+        <v>0.854144364485067</v>
       </c>
       <c r="E34" t="n">
-        <v>0.134201153897157</v>
+        <v>0.145855635514933</v>
       </c>
     </row>
     <row r="35">
@@ -1299,10 +1299,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.991822868226473</v>
+        <v>0.995958219719091</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0081771317735273</v>
+        <v>0.00404178028090862</v>
       </c>
     </row>
     <row r="54">
@@ -1316,10 +1316,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>0.97259335714407</v>
+        <v>0.980827244759628</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0274066428559298</v>
+        <v>0.0191727552403721</v>
       </c>
     </row>
     <row r="55">
@@ -1333,10 +1333,10 @@
         <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>0.769788682425788</v>
+        <v>0.872866665269075</v>
       </c>
       <c r="E55" t="n">
-        <v>0.230211317574212</v>
+        <v>0.127133334730925</v>
       </c>
     </row>
     <row r="56">
@@ -1350,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.996669636084899</v>
+        <v>0.991822868226473</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00333036391510122</v>
+        <v>0.0081771317735273</v>
       </c>
     </row>
     <row r="57">
@@ -1367,10 +1367,10 @@
         <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>0.963095630197688</v>
+        <v>0.97259335714407</v>
       </c>
       <c r="E57" t="n">
-        <v>0.036904369802312</v>
+        <v>0.0274066428559298</v>
       </c>
     </row>
     <row r="58">
@@ -1384,10 +1384,10 @@
         <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>0.766327647693746</v>
+        <v>0.769788682425788</v>
       </c>
       <c r="E58" t="n">
-        <v>0.233672352306254</v>
+        <v>0.230211317574212</v>
       </c>
     </row>
     <row r="59">
@@ -1401,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.986786120795684</v>
+        <v>0.996669636084899</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0132138792043165</v>
+        <v>0.00333036391510122</v>
       </c>
     </row>
     <row r="60">
@@ -1418,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>0.94628634130437</v>
+        <v>0.963095630197688</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0537136586956301</v>
+        <v>0.036904369802312</v>
       </c>
     </row>
     <row r="61">
@@ -1435,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>0.816870793043477</v>
+        <v>0.766327647693746</v>
       </c>
       <c r="E61" t="n">
-        <v>0.183129206956523</v>
+        <v>0.233672352306254</v>
       </c>
     </row>
     <row r="62">
@@ -1452,10 +1452,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.986786120795684</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.0132138792043165</v>
       </c>
     </row>
     <row r="63">
@@ -1469,10 +1469,10 @@
         <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.94628634130437</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.0537136586956301</v>
       </c>
     </row>
     <row r="64">
@@ -1486,10 +1486,10 @@
         <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8506642331535</v>
+        <v>0.816870793043477</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1493357668465</v>
+        <v>0.183129206956523</v>
       </c>
     </row>
     <row r="65">
@@ -1503,10 +1503,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>0.995958219719091</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00404178028090862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1520,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>0.980827244759628</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0191727552403721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1537,10 +1537,10 @@
         <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>0.872866665269075</v>
+        <v>0.8506642331535</v>
       </c>
       <c r="E67" t="n">
-        <v>0.127133334730925</v>
+        <v>0.1493357668465</v>
       </c>
     </row>
     <row r="68">
@@ -1860,10 +1860,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.992308157534604</v>
+        <v>0.997000582651197</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00769184246539589</v>
+        <v>0.00299941734880327</v>
       </c>
     </row>
     <row r="87">
@@ -1877,10 +1877,10 @@
         <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>0.973876047168234</v>
+        <v>0.981741093690919</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0261239528317664</v>
+        <v>0.0182589063090811</v>
       </c>
     </row>
     <row r="88">
@@ -1894,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>0.776590797968059</v>
+        <v>0.880187553812549</v>
       </c>
       <c r="E88" t="n">
-        <v>0.223409202031941</v>
+        <v>0.119812446187451</v>
       </c>
     </row>
     <row r="89">
@@ -1911,10 +1911,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.995886107368998</v>
+        <v>0.992308157534604</v>
       </c>
       <c r="E89" t="n">
-        <v>0.00411389263100159</v>
+        <v>0.00769184246539589</v>
       </c>
     </row>
     <row r="90">
@@ -1928,10 +1928,10 @@
         <v>7</v>
       </c>
       <c r="D90" t="n">
-        <v>0.963231820151395</v>
+        <v>0.973876047168234</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0367681798486054</v>
+        <v>0.0261239528317664</v>
       </c>
     </row>
     <row r="91">
@@ -1945,10 +1945,10 @@
         <v>8</v>
       </c>
       <c r="D91" t="n">
-        <v>0.769081621796469</v>
+        <v>0.776590797968059</v>
       </c>
       <c r="E91" t="n">
-        <v>0.230918378203531</v>
+        <v>0.223409202031941</v>
       </c>
     </row>
     <row r="92">
@@ -1962,10 +1962,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.985060503731544</v>
+        <v>0.995886107368998</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0149394962684561</v>
+        <v>0.00411389263100159</v>
       </c>
     </row>
     <row r="93">
@@ -1979,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>0.94972909301073</v>
+        <v>0.963231820151395</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0502709069892703</v>
+        <v>0.0367681798486054</v>
       </c>
     </row>
     <row r="94">
@@ -1996,10 +1996,10 @@
         <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>0.824821244567939</v>
+        <v>0.769081621796469</v>
       </c>
       <c r="E94" t="n">
-        <v>0.175178755432061</v>
+        <v>0.230918378203531</v>
       </c>
     </row>
     <row r="95">
@@ -2013,10 +2013,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0.985060503731544</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.0149394962684561</v>
       </c>
     </row>
     <row r="96">
@@ -2030,10 +2030,10 @@
         <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.94972909301073</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.0502709069892703</v>
       </c>
     </row>
     <row r="97">
@@ -2047,10 +2047,10 @@
         <v>8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.859433961967944</v>
+        <v>0.824821244567939</v>
       </c>
       <c r="E97" t="n">
-        <v>0.140566038032056</v>
+        <v>0.175178755432061</v>
       </c>
     </row>
     <row r="98">
@@ -2064,10 +2064,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.997000582651197</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00299941734880327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2081,10 +2081,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>0.981741093690919</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0182589063090811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2098,10 +2098,10 @@
         <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>0.880187553812549</v>
+        <v>0.859433961967944</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119812446187451</v>
+        <v>0.140566038032056</v>
       </c>
     </row>
     <row r="101">
@@ -2472,10 +2472,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.991384247884509</v>
+        <v>0.996166310553598</v>
       </c>
       <c r="E122" t="n">
-        <v>0.00861575211549115</v>
+        <v>0.00383368944640239</v>
       </c>
     </row>
     <row r="123">
@@ -2489,10 +2489,10 @@
         <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>0.975898340279293</v>
+        <v>0.980126205476313</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0241016597207067</v>
+        <v>0.0198737945236869</v>
       </c>
     </row>
     <row r="124">
@@ -2506,10 +2506,10 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>0.775826622623587</v>
+        <v>0.883720727825778</v>
       </c>
       <c r="E124" t="n">
-        <v>0.224173377376413</v>
+        <v>0.116279272174222</v>
       </c>
     </row>
     <row r="125">
@@ -2523,10 +2523,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.996906003253939</v>
+        <v>0.991384247884509</v>
       </c>
       <c r="E125" t="n">
-        <v>0.00309399674606103</v>
+        <v>0.00861575211549115</v>
       </c>
     </row>
     <row r="126">
@@ -2540,10 +2540,10 @@
         <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>0.967321899508583</v>
+        <v>0.975898340279293</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0326781004914172</v>
+        <v>0.0241016597207067</v>
       </c>
     </row>
     <row r="127">
@@ -2557,10 +2557,10 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>0.760233916516796</v>
+        <v>0.775826622623587</v>
       </c>
       <c r="E127" t="n">
-        <v>0.239766083483204</v>
+        <v>0.224173377376413</v>
       </c>
     </row>
     <row r="128">
@@ -2574,10 +2574,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.994830901144885</v>
+        <v>0.996906003253939</v>
       </c>
       <c r="E128" t="n">
-        <v>0.00516909885511452</v>
+        <v>0.00309399674606103</v>
       </c>
     </row>
     <row r="129">
@@ -2591,10 +2591,10 @@
         <v>7</v>
       </c>
       <c r="D129" t="n">
-        <v>0.97028131302059</v>
+        <v>0.967321899508583</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0297186869794097</v>
+        <v>0.0326781004914172</v>
       </c>
     </row>
     <row r="130">
@@ -2608,10 +2608,10 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>0.831909301302895</v>
+        <v>0.760233916516796</v>
       </c>
       <c r="E130" t="n">
-        <v>0.168090698697105</v>
+        <v>0.239766083483204</v>
       </c>
     </row>
     <row r="131">
@@ -2625,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.999965106257311</v>
+        <v>0.994830901144885</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0000348937426892793</v>
+        <v>0.00516909885511452</v>
       </c>
     </row>
     <row r="132">
@@ -2642,10 +2642,10 @@
         <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>0.995827526561425</v>
+        <v>0.97028131302059</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0041724734385753</v>
+        <v>0.0297186869794097</v>
       </c>
     </row>
     <row r="133">
@@ -2659,10 +2659,10 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>0.880733078956266</v>
+        <v>0.831909301302895</v>
       </c>
       <c r="E133" t="n">
-        <v>0.119266921043734</v>
+        <v>0.168090698697105</v>
       </c>
     </row>
     <row r="134">
@@ -2676,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.996166310553598</v>
+        <v>0.999965106257311</v>
       </c>
       <c r="E134" t="n">
-        <v>0.00383368944640239</v>
+        <v>0.0000348937426892793</v>
       </c>
     </row>
     <row r="135">
@@ -2693,10 +2693,10 @@
         <v>7</v>
       </c>
       <c r="D135" t="n">
-        <v>0.980126205476313</v>
+        <v>0.995827526561425</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0198737945236869</v>
+        <v>0.0041724734385753</v>
       </c>
     </row>
     <row r="136">
@@ -2710,10 +2710,10 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>0.883720727825778</v>
+        <v>0.880733078956266</v>
       </c>
       <c r="E136" t="n">
-        <v>0.116279272174222</v>
+        <v>0.119266921043734</v>
       </c>
     </row>
     <row r="137">
@@ -3084,10 +3084,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.989935570461619</v>
+        <v>0.996897286076409</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0100644295383815</v>
+        <v>0.00310271392359107</v>
       </c>
     </row>
     <row r="159">
@@ -3101,10 +3101,10 @@
         <v>7</v>
       </c>
       <c r="D159" t="n">
-        <v>0.972536614492173</v>
+        <v>0.980988271507324</v>
       </c>
       <c r="E159" t="n">
-        <v>0.027463385507827</v>
+        <v>0.0190117284926762</v>
       </c>
     </row>
     <row r="160">
@@ -3118,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>0.778949915083689</v>
+        <v>0.888672817941543</v>
       </c>
       <c r="E160" t="n">
-        <v>0.221050084916311</v>
+        <v>0.111327182058457</v>
       </c>
     </row>
     <row r="161">
@@ -3135,10 +3135,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9972550338923</v>
+        <v>0.989935570461619</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00274496610770003</v>
+        <v>0.0100644295383815</v>
       </c>
     </row>
     <row r="162">
@@ -3152,10 +3152,10 @@
         <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>0.966789800053308</v>
+        <v>0.972536614492173</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0332101999466917</v>
+        <v>0.027463385507827</v>
       </c>
     </row>
     <row r="163">
@@ -3169,10 +3169,10 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>0.773122002852651</v>
+        <v>0.778949915083689</v>
       </c>
       <c r="E163" t="n">
-        <v>0.226877997147349</v>
+        <v>0.221050084916311</v>
       </c>
     </row>
     <row r="164">
@@ -3186,10 +3186,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0.993945221680237</v>
+        <v>0.9972550338923</v>
       </c>
       <c r="E164" t="n">
-        <v>0.00605477831976342</v>
+        <v>0.00274496610770003</v>
       </c>
     </row>
     <row r="165">
@@ -3203,10 +3203,10 @@
         <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>0.960851202296791</v>
+        <v>0.966789800053308</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0391487977032091</v>
+        <v>0.0332101999466917</v>
       </c>
     </row>
     <row r="166">
@@ -3220,10 +3220,10 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8412496012098</v>
+        <v>0.773122002852651</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1587503987902</v>
+        <v>0.226877997147349</v>
       </c>
     </row>
     <row r="167">
@@ -3237,10 +3237,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.999349609456352</v>
+        <v>0.993945221680237</v>
       </c>
       <c r="E167" t="n">
-        <v>0.000650390543647794</v>
+        <v>0.00605477831976342</v>
       </c>
     </row>
     <row r="168">
@@ -3254,10 +3254,10 @@
         <v>7</v>
       </c>
       <c r="D168" t="n">
-        <v>0.991907790966144</v>
+        <v>0.960851202296791</v>
       </c>
       <c r="E168" t="n">
-        <v>0.00809220903385566</v>
+        <v>0.0391487977032091</v>
       </c>
     </row>
     <row r="169">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>0.877533225844028</v>
+        <v>0.8412496012098</v>
       </c>
       <c r="E169" t="n">
-        <v>0.122466774155972</v>
+        <v>0.1587503987902</v>
       </c>
     </row>
     <row r="170">
@@ -3288,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.996897286076409</v>
+        <v>0.999349609456352</v>
       </c>
       <c r="E170" t="n">
-        <v>0.00310271392359107</v>
+        <v>0.000650390543647794</v>
       </c>
     </row>
     <row r="171">
@@ -3305,10 +3305,10 @@
         <v>7</v>
       </c>
       <c r="D171" t="n">
-        <v>0.980988271507324</v>
+        <v>0.991907790966144</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0190117284926762</v>
+        <v>0.00809220903385566</v>
       </c>
     </row>
     <row r="172">
@@ -3322,10 +3322,10 @@
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>0.888672817941543</v>
+        <v>0.877533225844028</v>
       </c>
       <c r="E172" t="n">
-        <v>0.111327182058457</v>
+        <v>0.122466774155972</v>
       </c>
     </row>
     <row r="173">
@@ -3696,10 +3696,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.993950282297315</v>
+        <v>0.995889746737996</v>
       </c>
       <c r="E194" t="n">
-        <v>0.00604971770268525</v>
+        <v>0.00411025326200365</v>
       </c>
     </row>
     <row r="195">
@@ -3713,10 +3713,10 @@
         <v>7</v>
       </c>
       <c r="D195" t="n">
-        <v>0.968879821080928</v>
+        <v>0.982092958555418</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0311201789190723</v>
+        <v>0.0179070414445822</v>
       </c>
     </row>
     <row r="196">
@@ -3730,10 +3730,10 @@
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>0.782240128219499</v>
+        <v>0.878949203703826</v>
       </c>
       <c r="E196" t="n">
-        <v>0.217759871780501</v>
+        <v>0.121050796296174</v>
       </c>
     </row>
     <row r="197">
@@ -3747,10 +3747,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.995855497436434</v>
+        <v>0.993950282297315</v>
       </c>
       <c r="E197" t="n">
-        <v>0.00414450256356558</v>
+        <v>0.00604971770268525</v>
       </c>
     </row>
     <row r="198">
@@ -3764,10 +3764,10 @@
         <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>0.965989276277427</v>
+        <v>0.968879821080928</v>
       </c>
       <c r="E198" t="n">
-        <v>0.034010723722573</v>
+        <v>0.0311201789190723</v>
       </c>
     </row>
     <row r="199">
@@ -3781,10 +3781,10 @@
         <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>0.765451891774947</v>
+        <v>0.782240128219499</v>
       </c>
       <c r="E199" t="n">
-        <v>0.234548108225053</v>
+        <v>0.217759871780501</v>
       </c>
     </row>
     <row r="200">
@@ -3798,10 +3798,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>0.992338234743656</v>
+        <v>0.995855497436434</v>
       </c>
       <c r="E200" t="n">
-        <v>0.00766176525634388</v>
+        <v>0.00414450256356558</v>
       </c>
     </row>
     <row r="201">
@@ -3815,10 +3815,10 @@
         <v>7</v>
       </c>
       <c r="D201" t="n">
-        <v>0.964315170295739</v>
+        <v>0.965989276277427</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0356848297042611</v>
+        <v>0.034010723722573</v>
       </c>
     </row>
     <row r="202">
@@ -3832,10 +3832,10 @@
         <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>0.834867121734117</v>
+        <v>0.765451891774947</v>
       </c>
       <c r="E202" t="n">
-        <v>0.165132878265883</v>
+        <v>0.234548108225053</v>
       </c>
     </row>
     <row r="203">
@@ -3849,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.99956284335924</v>
+        <v>0.992338234743656</v>
       </c>
       <c r="E203" t="n">
-        <v>0.000437156640760161</v>
+        <v>0.00766176525634388</v>
       </c>
     </row>
     <row r="204">
@@ -3866,10 +3866,10 @@
         <v>7</v>
       </c>
       <c r="D204" t="n">
-        <v>0.991295268356383</v>
+        <v>0.964315170295739</v>
       </c>
       <c r="E204" t="n">
-        <v>0.00870473164361718</v>
+        <v>0.0356848297042611</v>
       </c>
     </row>
     <row r="205">
@@ -3883,10 +3883,10 @@
         <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>0.875437219157154</v>
+        <v>0.834867121734117</v>
       </c>
       <c r="E205" t="n">
-        <v>0.124562780842846</v>
+        <v>0.165132878265883</v>
       </c>
     </row>
     <row r="206">
@@ -3900,10 +3900,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.995889746737996</v>
+        <v>0.99956284335924</v>
       </c>
       <c r="E206" t="n">
-        <v>0.00411025326200365</v>
+        <v>0.000437156640760161</v>
       </c>
     </row>
     <row r="207">
@@ -3917,10 +3917,10 @@
         <v>7</v>
       </c>
       <c r="D207" t="n">
-        <v>0.982092958555418</v>
+        <v>0.991295268356383</v>
       </c>
       <c r="E207" t="n">
-        <v>0.0179070414445822</v>
+        <v>0.00870473164361718</v>
       </c>
     </row>
     <row r="208">
@@ -3934,10 +3934,10 @@
         <v>8</v>
       </c>
       <c r="D208" t="n">
-        <v>0.878949203703826</v>
+        <v>0.875437219157154</v>
       </c>
       <c r="E208" t="n">
-        <v>0.121050796296174</v>
+        <v>0.124562780842846</v>
       </c>
     </row>
     <row r="209">
@@ -4308,10 +4308,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.992784254776065</v>
+        <v>0.996458336711491</v>
       </c>
       <c r="E230" t="n">
-        <v>0.00721574522393498</v>
+        <v>0.00354166328850924</v>
       </c>
     </row>
     <row r="231">
@@ -4325,10 +4325,10 @@
         <v>7</v>
       </c>
       <c r="D231" t="n">
-        <v>0.971527485270894</v>
+        <v>0.979326491568669</v>
       </c>
       <c r="E231" t="n">
-        <v>0.0284725147291063</v>
+        <v>0.0206735084313313</v>
       </c>
     </row>
     <row r="232">
@@ -4342,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="D232" t="n">
-        <v>0.802136823203876</v>
+        <v>0.890033702721577</v>
       </c>
       <c r="E232" t="n">
-        <v>0.197863176796124</v>
+        <v>0.109966297278423</v>
       </c>
     </row>
     <row r="233">
@@ -4359,10 +4359,10 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>0.995655345702084</v>
+        <v>0.992784254776065</v>
       </c>
       <c r="E233" t="n">
-        <v>0.00434465429791608</v>
+        <v>0.00721574522393498</v>
       </c>
     </row>
     <row r="234">
@@ -4376,10 +4376,10 @@
         <v>7</v>
       </c>
       <c r="D234" t="n">
-        <v>0.968696217324433</v>
+        <v>0.971527485270894</v>
       </c>
       <c r="E234" t="n">
-        <v>0.0313037826755674</v>
+        <v>0.0284725147291063</v>
       </c>
     </row>
     <row r="235">
@@ -4393,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>0.773565109044263</v>
+        <v>0.802136823203876</v>
       </c>
       <c r="E235" t="n">
-        <v>0.226434890955737</v>
+        <v>0.197863176796124</v>
       </c>
     </row>
     <row r="236">
@@ -4410,10 +4410,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.994677585005067</v>
+        <v>0.995655345702084</v>
       </c>
       <c r="E236" t="n">
-        <v>0.00532241499493291</v>
+        <v>0.00434465429791608</v>
       </c>
     </row>
     <row r="237">
@@ -4427,10 +4427,10 @@
         <v>7</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9650963853817</v>
+        <v>0.968696217324433</v>
       </c>
       <c r="E237" t="n">
-        <v>0.0349036146182998</v>
+        <v>0.0313037826755674</v>
       </c>
     </row>
     <row r="238">
@@ -4444,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="D238" t="n">
-        <v>0.836572955020407</v>
+        <v>0.773565109044263</v>
       </c>
       <c r="E238" t="n">
-        <v>0.163427044979593</v>
+        <v>0.226434890955737</v>
       </c>
     </row>
     <row r="239">
@@ -4461,10 +4461,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>0.999803520441053</v>
+        <v>0.994677585005067</v>
       </c>
       <c r="E239" t="n">
-        <v>0.000196479558946527</v>
+        <v>0.00532241499493291</v>
       </c>
     </row>
     <row r="240">
@@ -4478,10 +4478,10 @@
         <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>0.993996981107018</v>
+        <v>0.9650963853817</v>
       </c>
       <c r="E240" t="n">
-        <v>0.00600301889298194</v>
+        <v>0.0349036146182998</v>
       </c>
     </row>
     <row r="241">
@@ -4495,10 +4495,10 @@
         <v>8</v>
       </c>
       <c r="D241" t="n">
-        <v>0.883915432162512</v>
+        <v>0.836572955020407</v>
       </c>
       <c r="E241" t="n">
-        <v>0.116084567837488</v>
+        <v>0.163427044979593</v>
       </c>
     </row>
     <row r="242">
@@ -4512,10 +4512,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.996458336711491</v>
+        <v>0.999803520441053</v>
       </c>
       <c r="E242" t="n">
-        <v>0.00354166328850924</v>
+        <v>0.000196479558946527</v>
       </c>
     </row>
     <row r="243">
@@ -4529,10 +4529,10 @@
         <v>7</v>
       </c>
       <c r="D243" t="n">
-        <v>0.979326491568669</v>
+        <v>0.993996981107018</v>
       </c>
       <c r="E243" t="n">
-        <v>0.0206735084313313</v>
+        <v>0.00600301889298194</v>
       </c>
     </row>
     <row r="244">
@@ -4546,10 +4546,10 @@
         <v>8</v>
       </c>
       <c r="D244" t="n">
-        <v>0.890033702721577</v>
+        <v>0.883915432162512</v>
       </c>
       <c r="E244" t="n">
-        <v>0.109966297278423</v>
+        <v>0.116084567837488</v>
       </c>
     </row>
     <row r="245">
@@ -4869,10 +4869,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>0.993494372560503</v>
+        <v>0.996670668681071</v>
       </c>
       <c r="E263" t="n">
-        <v>0.00650562743949656</v>
+        <v>0.0033293313189291</v>
       </c>
     </row>
     <row r="264">
@@ -4886,10 +4886,10 @@
         <v>7</v>
       </c>
       <c r="D264" t="n">
-        <v>0.971750061352746</v>
+        <v>0.981813881595128</v>
       </c>
       <c r="E264" t="n">
-        <v>0.0282499386472537</v>
+        <v>0.0181861184048725</v>
       </c>
     </row>
     <row r="265">
@@ -4903,10 +4903,10 @@
         <v>8</v>
       </c>
       <c r="D265" t="n">
-        <v>0.789389442818431</v>
+        <v>0.888553534388972</v>
       </c>
       <c r="E265" t="n">
-        <v>0.210610557181569</v>
+        <v>0.111446465611028</v>
       </c>
     </row>
     <row r="266">
@@ -4920,10 +4920,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>0.996237575779419</v>
+        <v>0.993494372560503</v>
       </c>
       <c r="E266" t="n">
-        <v>0.00376242422058104</v>
+        <v>0.00650562743949656</v>
       </c>
     </row>
     <row r="267">
@@ -4937,10 +4937,10 @@
         <v>7</v>
       </c>
       <c r="D267" t="n">
-        <v>0.966568305610795</v>
+        <v>0.971750061352746</v>
       </c>
       <c r="E267" t="n">
-        <v>0.0334316943892053</v>
+        <v>0.0282499386472537</v>
       </c>
     </row>
     <row r="268">
@@ -4954,10 +4954,10 @@
         <v>8</v>
       </c>
       <c r="D268" t="n">
-        <v>0.773976065318404</v>
+        <v>0.789389442818431</v>
       </c>
       <c r="E268" t="n">
-        <v>0.226023934681596</v>
+        <v>0.210610557181569</v>
       </c>
     </row>
     <row r="269">
@@ -4971,10 +4971,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>0.995423222924738</v>
+        <v>0.996237575779419</v>
       </c>
       <c r="E269" t="n">
-        <v>0.00457677707526172</v>
+        <v>0.00376242422058104</v>
       </c>
     </row>
     <row r="270">
@@ -4988,10 +4988,10 @@
         <v>7</v>
       </c>
       <c r="D270" t="n">
-        <v>0.968393885182422</v>
+        <v>0.966568305610795</v>
       </c>
       <c r="E270" t="n">
-        <v>0.031606114817578</v>
+        <v>0.0334316943892053</v>
       </c>
     </row>
     <row r="271">
@@ -5005,10 +5005,10 @@
         <v>8</v>
       </c>
       <c r="D271" t="n">
-        <v>0.847782826637485</v>
+        <v>0.773976065318404</v>
       </c>
       <c r="E271" t="n">
-        <v>0.152217173362515</v>
+        <v>0.226023934681596</v>
       </c>
     </row>
     <row r="272">
@@ -5022,10 +5022,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>0.99936514231606</v>
+        <v>0.995423222924738</v>
       </c>
       <c r="E272" t="n">
-        <v>0.000634857683940226</v>
+        <v>0.00457677707526172</v>
       </c>
     </row>
     <row r="273">
@@ -5039,10 +5039,10 @@
         <v>7</v>
       </c>
       <c r="D273" t="n">
-        <v>0.993262091646548</v>
+        <v>0.968393885182422</v>
       </c>
       <c r="E273" t="n">
-        <v>0.00673790835345178</v>
+        <v>0.031606114817578</v>
       </c>
     </row>
     <row r="274">
@@ -5056,10 +5056,10 @@
         <v>8</v>
       </c>
       <c r="D274" t="n">
-        <v>0.894035359166842</v>
+        <v>0.847782826637485</v>
       </c>
       <c r="E274" t="n">
-        <v>0.105964640833158</v>
+        <v>0.152217173362515</v>
       </c>
     </row>
     <row r="275">
@@ -5073,10 +5073,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>0.996670668681071</v>
+        <v>0.99936514231606</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0033293313189291</v>
+        <v>0.000634857683940226</v>
       </c>
     </row>
     <row r="276">
@@ -5090,10 +5090,10 @@
         <v>7</v>
       </c>
       <c r="D276" t="n">
-        <v>0.981813881595128</v>
+        <v>0.993262091646548</v>
       </c>
       <c r="E276" t="n">
-        <v>0.0181861184048725</v>
+        <v>0.00673790835345178</v>
       </c>
     </row>
     <row r="277">
@@ -5107,10 +5107,10 @@
         <v>8</v>
       </c>
       <c r="D277" t="n">
-        <v>0.888553534388972</v>
+        <v>0.894035359166842</v>
       </c>
       <c r="E277" t="n">
-        <v>0.111446465611028</v>
+        <v>0.105964640833158</v>
       </c>
     </row>
     <row r="278">
@@ -5430,10 +5430,10 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>0.993538092443745</v>
+        <v>0.997345058054938</v>
       </c>
       <c r="E296" t="n">
-        <v>0.00646190755625498</v>
+        <v>0.00265494194506211</v>
       </c>
     </row>
     <row r="297">
@@ -5447,10 +5447,10 @@
         <v>7</v>
       </c>
       <c r="D297" t="n">
-        <v>0.968632649906812</v>
+        <v>0.980647712731675</v>
       </c>
       <c r="E297" t="n">
-        <v>0.0313673500931879</v>
+        <v>0.0193522872683247</v>
       </c>
     </row>
     <row r="298">
@@ -5464,10 +5464,10 @@
         <v>8</v>
       </c>
       <c r="D298" t="n">
-        <v>0.772308450013004</v>
+        <v>0.887658797032032</v>
       </c>
       <c r="E298" t="n">
-        <v>0.227691549986996</v>
+        <v>0.112341202967968</v>
       </c>
     </row>
     <row r="299">
@@ -5481,10 +5481,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>0.996035420800592</v>
+        <v>0.993538092443745</v>
       </c>
       <c r="E299" t="n">
-        <v>0.00396457919940807</v>
+        <v>0.00646190755625498</v>
       </c>
     </row>
     <row r="300">
@@ -5498,10 +5498,10 @@
         <v>7</v>
       </c>
       <c r="D300" t="n">
-        <v>0.965129335058636</v>
+        <v>0.968632649906812</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0348706649413636</v>
+        <v>0.0313673500931879</v>
       </c>
     </row>
     <row r="301">
@@ -5515,10 +5515,10 @@
         <v>8</v>
       </c>
       <c r="D301" t="n">
-        <v>0.780556034939767</v>
+        <v>0.772308450013004</v>
       </c>
       <c r="E301" t="n">
-        <v>0.219443965060233</v>
+        <v>0.227691549986996</v>
       </c>
     </row>
     <row r="302">
@@ -5532,10 +5532,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>0.995608759042504</v>
+        <v>0.996035420800592</v>
       </c>
       <c r="E302" t="n">
-        <v>0.00439124095749555</v>
+        <v>0.00396457919940807</v>
       </c>
     </row>
     <row r="303">
@@ -5549,10 +5549,10 @@
         <v>7</v>
       </c>
       <c r="D303" t="n">
-        <v>0.967535777920719</v>
+        <v>0.965129335058636</v>
       </c>
       <c r="E303" t="n">
-        <v>0.032464222079281</v>
+        <v>0.0348706649413636</v>
       </c>
     </row>
     <row r="304">
@@ -5566,10 +5566,10 @@
         <v>8</v>
       </c>
       <c r="D304" t="n">
-        <v>0.8525119606066</v>
+        <v>0.780556034939767</v>
       </c>
       <c r="E304" t="n">
-        <v>0.1474880393934</v>
+        <v>0.219443965060233</v>
       </c>
     </row>
     <row r="305">
@@ -5583,10 +5583,10 @@
         <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>0.999540004049574</v>
+        <v>0.995608759042504</v>
       </c>
       <c r="E305" t="n">
-        <v>0.000459995950426006</v>
+        <v>0.00439124095749555</v>
       </c>
     </row>
     <row r="306">
@@ -5600,10 +5600,10 @@
         <v>7</v>
       </c>
       <c r="D306" t="n">
-        <v>0.994549576978518</v>
+        <v>0.967535777920719</v>
       </c>
       <c r="E306" t="n">
-        <v>0.00545042302148158</v>
+        <v>0.032464222079281</v>
       </c>
     </row>
     <row r="307">
@@ -5617,10 +5617,10 @@
         <v>8</v>
       </c>
       <c r="D307" t="n">
-        <v>0.899539875044234</v>
+        <v>0.8525119606066</v>
       </c>
       <c r="E307" t="n">
-        <v>0.100460124955766</v>
+        <v>0.1474880393934</v>
       </c>
     </row>
     <row r="308">
@@ -5634,10 +5634,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>0.997345058054938</v>
+        <v>0.999540004049574</v>
       </c>
       <c r="E308" t="n">
-        <v>0.00265494194506211</v>
+        <v>0.000459995950426006</v>
       </c>
     </row>
     <row r="309">
@@ -5651,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="D309" t="n">
-        <v>0.980647712731675</v>
+        <v>0.994549576978518</v>
       </c>
       <c r="E309" t="n">
-        <v>0.0193522872683247</v>
+        <v>0.00545042302148158</v>
       </c>
     </row>
     <row r="310">
@@ -5668,10 +5668,10 @@
         <v>8</v>
       </c>
       <c r="D310" t="n">
-        <v>0.887658797032032</v>
+        <v>0.899539875044234</v>
       </c>
       <c r="E310" t="n">
-        <v>0.112341202967968</v>
+        <v>0.100460124955766</v>
       </c>
     </row>
     <row r="311">
@@ -6042,10 +6042,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>0.994711037517282</v>
+        <v>0.997550337889145</v>
       </c>
       <c r="E332" t="n">
-        <v>0.00528896248271848</v>
+        <v>0.0024496621108554</v>
       </c>
     </row>
     <row r="333">
@@ -6059,10 +6059,10 @@
         <v>7</v>
       </c>
       <c r="D333" t="n">
-        <v>0.967716893009948</v>
+        <v>0.983888022286843</v>
       </c>
       <c r="E333" t="n">
-        <v>0.032283106990052</v>
+        <v>0.016111977713157</v>
       </c>
     </row>
     <row r="334">
@@ -6076,10 +6076,10 @@
         <v>8</v>
       </c>
       <c r="D334" t="n">
-        <v>0.766245492423942</v>
+        <v>0.886455300280395</v>
       </c>
       <c r="E334" t="n">
-        <v>0.233754507576058</v>
+        <v>0.113544699719605</v>
       </c>
     </row>
     <row r="335">
@@ -6093,10 +6093,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>0.996806100426132</v>
+        <v>0.994711037517282</v>
       </c>
       <c r="E335" t="n">
-        <v>0.00319389957386795</v>
+        <v>0.00528896248271848</v>
       </c>
     </row>
     <row r="336">
@@ -6110,10 +6110,10 @@
         <v>7</v>
       </c>
       <c r="D336" t="n">
-        <v>0.964341193734249</v>
+        <v>0.967716893009948</v>
       </c>
       <c r="E336" t="n">
-        <v>0.035658806265751</v>
+        <v>0.032283106990052</v>
       </c>
     </row>
     <row r="337">
@@ -6127,10 +6127,10 @@
         <v>8</v>
       </c>
       <c r="D337" t="n">
-        <v>0.792336788736106</v>
+        <v>0.766245492423942</v>
       </c>
       <c r="E337" t="n">
-        <v>0.207663211263894</v>
+        <v>0.233754507576058</v>
       </c>
     </row>
     <row r="338">
@@ -6144,10 +6144,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>0.996703124062702</v>
+        <v>0.996806100426132</v>
       </c>
       <c r="E338" t="n">
-        <v>0.00329687593729822</v>
+        <v>0.00319389957386795</v>
       </c>
     </row>
     <row r="339">
@@ -6161,10 +6161,10 @@
         <v>7</v>
       </c>
       <c r="D339" t="n">
-        <v>0.969066228379093</v>
+        <v>0.964341193734249</v>
       </c>
       <c r="E339" t="n">
-        <v>0.0309337716209075</v>
+        <v>0.035658806265751</v>
       </c>
     </row>
     <row r="340">
@@ -6178,10 +6178,10 @@
         <v>8</v>
       </c>
       <c r="D340" t="n">
-        <v>0.849694227916683</v>
+        <v>0.792336788736106</v>
       </c>
       <c r="E340" t="n">
-        <v>0.150305772083317</v>
+        <v>0.207663211263894</v>
       </c>
     </row>
     <row r="341">
@@ -6195,10 +6195,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>0.999455799114818</v>
+        <v>0.996703124062702</v>
       </c>
       <c r="E341" t="n">
-        <v>0.0005442008851817</v>
+        <v>0.00329687593729822</v>
       </c>
     </row>
     <row r="342">
@@ -6212,10 +6212,10 @@
         <v>7</v>
       </c>
       <c r="D342" t="n">
-        <v>0.995903074304234</v>
+        <v>0.969066228379093</v>
       </c>
       <c r="E342" t="n">
-        <v>0.0040969256957657</v>
+        <v>0.0309337716209075</v>
       </c>
     </row>
     <row r="343">
@@ -6229,10 +6229,10 @@
         <v>8</v>
       </c>
       <c r="D343" t="n">
-        <v>0.892706390299878</v>
+        <v>0.849694227916683</v>
       </c>
       <c r="E343" t="n">
-        <v>0.107293609700122</v>
+        <v>0.150305772083317</v>
       </c>
     </row>
     <row r="344">
@@ -6246,10 +6246,10 @@
         <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>0.997550337889145</v>
+        <v>0.999455799114818</v>
       </c>
       <c r="E344" t="n">
-        <v>0.0024496621108554</v>
+        <v>0.0005442008851817</v>
       </c>
     </row>
     <row r="345">
@@ -6263,10 +6263,10 @@
         <v>7</v>
       </c>
       <c r="D345" t="n">
-        <v>0.983888022286843</v>
+        <v>0.995903074304234</v>
       </c>
       <c r="E345" t="n">
-        <v>0.016111977713157</v>
+        <v>0.0040969256957657</v>
       </c>
     </row>
     <row r="346">
@@ -6280,10 +6280,10 @@
         <v>8</v>
       </c>
       <c r="D346" t="n">
-        <v>0.886455300280395</v>
+        <v>0.892706390299878</v>
       </c>
       <c r="E346" t="n">
-        <v>0.113544699719605</v>
+        <v>0.107293609700122</v>
       </c>
     </row>
     <row r="347">
@@ -6654,10 +6654,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>0.995206980768432</v>
+        <v>0.996422617992199</v>
       </c>
       <c r="E368" t="n">
-        <v>0.00479301923156839</v>
+        <v>0.00357738200780133</v>
       </c>
     </row>
     <row r="369">
@@ -6671,10 +6671,10 @@
         <v>7</v>
       </c>
       <c r="D369" t="n">
-        <v>0.961348470980159</v>
+        <v>0.982178218209831</v>
       </c>
       <c r="E369" t="n">
-        <v>0.0386515290198414</v>
+        <v>0.017821781790169</v>
       </c>
     </row>
     <row r="370">
@@ -6688,10 +6688,10 @@
         <v>8</v>
       </c>
       <c r="D370" t="n">
-        <v>0.758559407907066</v>
+        <v>0.900118930718044</v>
       </c>
       <c r="E370" t="n">
-        <v>0.241440592092934</v>
+        <v>0.0998810692819562</v>
       </c>
     </row>
     <row r="371">
@@ -6705,10 +6705,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>0.995804151828916</v>
+        <v>0.995206980768432</v>
       </c>
       <c r="E371" t="n">
-        <v>0.0041958481710842</v>
+        <v>0.00479301923156839</v>
       </c>
     </row>
     <row r="372">
@@ -6722,10 +6722,10 @@
         <v>7</v>
       </c>
       <c r="D372" t="n">
-        <v>0.966694504919812</v>
+        <v>0.961348470980159</v>
       </c>
       <c r="E372" t="n">
-        <v>0.0333054950801881</v>
+        <v>0.0386515290198414</v>
       </c>
     </row>
     <row r="373">
@@ -6739,10 +6739,10 @@
         <v>8</v>
       </c>
       <c r="D373" t="n">
-        <v>0.792040605961834</v>
+        <v>0.758559407907066</v>
       </c>
       <c r="E373" t="n">
-        <v>0.207959394038166</v>
+        <v>0.241440592092934</v>
       </c>
     </row>
     <row r="374">
@@ -6756,10 +6756,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>0.996250077883723</v>
+        <v>0.995804151828916</v>
       </c>
       <c r="E374" t="n">
-        <v>0.00374992211627712</v>
+        <v>0.0041958481710842</v>
       </c>
     </row>
     <row r="375">
@@ -6773,10 +6773,10 @@
         <v>7</v>
       </c>
       <c r="D375" t="n">
-        <v>0.965619021463637</v>
+        <v>0.966694504919812</v>
       </c>
       <c r="E375" t="n">
-        <v>0.034380978536363</v>
+        <v>0.0333054950801881</v>
       </c>
     </row>
     <row r="376">
@@ -6790,10 +6790,10 @@
         <v>8</v>
       </c>
       <c r="D376" t="n">
-        <v>0.843725582173797</v>
+        <v>0.792040605961834</v>
       </c>
       <c r="E376" t="n">
-        <v>0.156274417826203</v>
+        <v>0.207959394038166</v>
       </c>
     </row>
     <row r="377">
@@ -6807,10 +6807,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>0.999625882613157</v>
+        <v>0.996250077883723</v>
       </c>
       <c r="E377" t="n">
-        <v>0.000374117386842676</v>
+        <v>0.00374992211627712</v>
       </c>
     </row>
     <row r="378">
@@ -6824,10 +6824,10 @@
         <v>7</v>
       </c>
       <c r="D378" t="n">
-        <v>0.995980659366338</v>
+        <v>0.965619021463637</v>
       </c>
       <c r="E378" t="n">
-        <v>0.00401934063366194</v>
+        <v>0.034380978536363</v>
       </c>
     </row>
     <row r="379">
@@ -6841,10 +6841,10 @@
         <v>8</v>
       </c>
       <c r="D379" t="n">
-        <v>0.890073464674292</v>
+        <v>0.843725582173797</v>
       </c>
       <c r="E379" t="n">
-        <v>0.109926535325708</v>
+        <v>0.156274417826203</v>
       </c>
     </row>
     <row r="380">
@@ -6858,10 +6858,10 @@
         <v>6</v>
       </c>
       <c r="D380" t="n">
-        <v>0.996422617992199</v>
+        <v>0.999625882613157</v>
       </c>
       <c r="E380" t="n">
-        <v>0.00357738200780133</v>
+        <v>0.000374117386842676</v>
       </c>
     </row>
     <row r="381">
@@ -6875,10 +6875,10 @@
         <v>7</v>
       </c>
       <c r="D381" t="n">
-        <v>0.982178218209831</v>
+        <v>0.995980659366338</v>
       </c>
       <c r="E381" t="n">
-        <v>0.017821781790169</v>
+        <v>0.00401934063366194</v>
       </c>
     </row>
     <row r="382">
@@ -6892,10 +6892,10 @@
         <v>8</v>
       </c>
       <c r="D382" t="n">
-        <v>0.900118930718044</v>
+        <v>0.890073464674292</v>
       </c>
       <c r="E382" t="n">
-        <v>0.0998810692819562</v>
+        <v>0.109926535325708</v>
       </c>
     </row>
     <row r="383">
@@ -7120,10 +7120,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.854197440761488</v>
+        <v>0.962465432778972</v>
       </c>
       <c r="D8" t="n">
-        <v>0.145802559238512</v>
+        <v>0.037534567221028</v>
       </c>
     </row>
     <row r="9">
@@ -7134,10 +7134,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.903161335404519</v>
+        <v>0.854197440761488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0968386645954814</v>
+        <v>0.145802559238512</v>
       </c>
     </row>
     <row r="10">
@@ -7148,10 +7148,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.854649314358213</v>
+        <v>0.903161335404519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.145350685641787</v>
+        <v>0.0968386645954814</v>
       </c>
     </row>
     <row r="11">
@@ -7162,10 +7162,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>0.979689066907169</v>
+        <v>0.854649314358213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0203109330928311</v>
+        <v>0.145350685641787</v>
       </c>
     </row>
     <row r="12">
@@ -7176,10 +7176,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>0.962465432778972</v>
+        <v>0.979689066907169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.037534567221028</v>
+        <v>0.0203109330928311</v>
       </c>
     </row>
     <row r="13">
@@ -7274,10 +7274,10 @@
         <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.853877196499717</v>
+        <v>0.965060885911195</v>
       </c>
       <c r="D19" t="n">
-        <v>0.146122803500283</v>
+        <v>0.0349391140888049</v>
       </c>
     </row>
     <row r="20">
@@ -7288,10 +7288,10 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>0.906115784278488</v>
+        <v>0.853877196499717</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0938842157215121</v>
+        <v>0.146122803500283</v>
       </c>
     </row>
     <row r="21">
@@ -7302,10 +7302,10 @@
         <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>0.861499515018598</v>
+        <v>0.906115784278488</v>
       </c>
       <c r="D21" t="n">
-        <v>0.138500484981402</v>
+        <v>0.0938842157215121</v>
       </c>
     </row>
     <row r="22">
@@ -7316,10 +7316,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>0.977557563277941</v>
+        <v>0.861499515018598</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0224424367220588</v>
+        <v>0.138500484981402</v>
       </c>
     </row>
     <row r="23">
@@ -7330,10 +7330,10 @@
         <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>0.965060885911195</v>
+        <v>0.977557563277941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0349391140888049</v>
+        <v>0.0224424367220588</v>
       </c>
     </row>
     <row r="24">
@@ -7428,10 +7428,10 @@
         <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>0.858555574686623</v>
+        <v>0.967353496480927</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141444425313377</v>
+        <v>0.0326465035190735</v>
       </c>
     </row>
     <row r="31">
@@ -7442,10 +7442,10 @@
         <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>0.905877761030856</v>
+        <v>0.858555574686623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0941222389691438</v>
+        <v>0.141444425313377</v>
       </c>
     </row>
     <row r="32">
@@ -7456,10 +7456,10 @@
         <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>0.868504114305839</v>
+        <v>0.905877761030856</v>
       </c>
       <c r="D32" t="n">
-        <v>0.131495885694161</v>
+        <v>0.0941222389691438</v>
       </c>
     </row>
     <row r="33">
@@ -7470,10 +7470,10 @@
         <v>17</v>
       </c>
       <c r="C33" t="n">
-        <v>0.978612408145013</v>
+        <v>0.868504114305839</v>
       </c>
       <c r="D33" t="n">
-        <v>0.021387591854987</v>
+        <v>0.131495885694161</v>
       </c>
     </row>
     <row r="34">
@@ -7484,10 +7484,10 @@
         <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>0.967353496480927</v>
+        <v>0.978612408145013</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0326465035190735</v>
+        <v>0.021387591854987</v>
       </c>
     </row>
     <row r="35">
@@ -7596,10 +7596,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.861641483663575</v>
+        <v>0.967384372628417</v>
       </c>
       <c r="D42" t="n">
-        <v>0.138358516336425</v>
+        <v>0.0326156273715826</v>
       </c>
     </row>
     <row r="43">
@@ -7610,10 +7610,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>0.905933064567002</v>
+        <v>0.861641483663575</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0940669354329985</v>
+        <v>0.138358516336425</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="n">
-        <v>0.924723223016943</v>
+        <v>0.905933064567002</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0752767769830567</v>
+        <v>0.0940669354329985</v>
       </c>
     </row>
     <row r="45">
@@ -7638,10 +7638,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>0.97985640729624</v>
+        <v>0.924723223016943</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0201435927037604</v>
+        <v>0.0752767769830567</v>
       </c>
     </row>
     <row r="46">
@@ -7652,10 +7652,10 @@
         <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>0.967384372628417</v>
+        <v>0.97985640729624</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0326156273715826</v>
+        <v>0.0201435927037604</v>
       </c>
     </row>
     <row r="47">
@@ -7764,10 +7764,10 @@
         <v>14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.870790001105536</v>
+        <v>0.969007325489919</v>
       </c>
       <c r="D54" t="n">
-        <v>0.129209998894464</v>
+        <v>0.0309926745100808</v>
       </c>
     </row>
     <row r="55">
@@ -7778,10 +7778,10 @@
         <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>0.906438073792508</v>
+        <v>0.870790001105536</v>
       </c>
       <c r="D55" t="n">
-        <v>0.093561926207492</v>
+        <v>0.129209998894464</v>
       </c>
     </row>
     <row r="56">
@@ -7792,10 +7792,10 @@
         <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>0.927697698030171</v>
+        <v>0.906438073792508</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0723023019698293</v>
+        <v>0.093561926207492</v>
       </c>
     </row>
     <row r="57">
@@ -7806,10 +7806,10 @@
         <v>17</v>
       </c>
       <c r="C57" t="n">
-        <v>0.977303977469895</v>
+        <v>0.927697698030171</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0226960225301047</v>
+        <v>0.0723023019698293</v>
       </c>
     </row>
     <row r="58">
@@ -7820,10 +7820,10 @@
         <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>0.969007325489919</v>
+        <v>0.977303977469895</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0309926745100808</v>
+        <v>0.0226960225301047</v>
       </c>
     </row>
     <row r="59">
@@ -7932,10 +7932,10 @@
         <v>14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.87247406016282</v>
+        <v>0.967096506274087</v>
       </c>
       <c r="D66" t="n">
-        <v>0.12752593983718</v>
+        <v>0.0329034937259127</v>
       </c>
     </row>
     <row r="67">
@@ -7946,10 +7946,10 @@
         <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>0.901954589885287</v>
+        <v>0.87247406016282</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0980454101147132</v>
+        <v>0.12752593983718</v>
       </c>
     </row>
     <row r="68">
@@ -7960,10 +7960,10 @@
         <v>16</v>
       </c>
       <c r="C68" t="n">
-        <v>0.924611076159194</v>
+        <v>0.901954589885287</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0753889238408055</v>
+        <v>0.0980454101147132</v>
       </c>
     </row>
     <row r="69">
@@ -7974,10 +7974,10 @@
         <v>17</v>
       </c>
       <c r="C69" t="n">
-        <v>0.976986782680819</v>
+        <v>0.924611076159194</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0230132173191815</v>
+        <v>0.0753889238408055</v>
       </c>
     </row>
     <row r="70">
@@ -7988,10 +7988,10 @@
         <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>0.967096506274087</v>
+        <v>0.976986782680819</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0329034937259127</v>
+        <v>0.0230132173191815</v>
       </c>
     </row>
     <row r="71">
@@ -8100,10 +8100,10 @@
         <v>14</v>
       </c>
       <c r="C78" t="n">
-        <v>0.882293901738875</v>
+        <v>0.968524350171088</v>
       </c>
       <c r="D78" t="n">
-        <v>0.117706098261125</v>
+        <v>0.0314756498289118</v>
       </c>
     </row>
     <row r="79">
@@ -8114,10 +8114,10 @@
         <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>0.905250932731238</v>
+        <v>0.882293901738875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0947490672687616</v>
+        <v>0.117706098261125</v>
       </c>
     </row>
     <row r="80">
@@ -8128,10 +8128,10 @@
         <v>16</v>
       </c>
       <c r="C80" t="n">
-        <v>0.926991984927725</v>
+        <v>0.905250932731238</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0730080150722747</v>
+        <v>0.0947490672687616</v>
       </c>
     </row>
     <row r="81">
@@ -8142,10 +8142,10 @@
         <v>17</v>
       </c>
       <c r="C81" t="n">
-        <v>0.979715456090678</v>
+        <v>0.926991984927725</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0202845439093224</v>
+        <v>0.0730080150722747</v>
       </c>
     </row>
     <row r="82">
@@ -8156,10 +8156,10 @@
         <v>18</v>
       </c>
       <c r="C82" t="n">
-        <v>0.968524350171088</v>
+        <v>0.979715456090678</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0314756498289118</v>
+        <v>0.0202845439093224</v>
       </c>
     </row>
     <row r="83">
@@ -8254,10 +8254,10 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>0.876555064168511</v>
+        <v>0.96955485605966</v>
       </c>
       <c r="D89" t="n">
-        <v>0.123444935831489</v>
+        <v>0.0304451439403403</v>
       </c>
     </row>
     <row r="90">
@@ -8268,10 +8268,10 @@
         <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>0.904571777426215</v>
+        <v>0.876555064168511</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0954282225737854</v>
+        <v>0.123444935831489</v>
       </c>
     </row>
     <row r="91">
@@ -8282,10 +8282,10 @@
         <v>16</v>
       </c>
       <c r="C91" t="n">
-        <v>0.934047477707959</v>
+        <v>0.904571777426215</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0659525222920406</v>
+        <v>0.0954282225737854</v>
       </c>
     </row>
     <row r="92">
@@ -8296,10 +8296,10 @@
         <v>17</v>
       </c>
       <c r="C92" t="n">
-        <v>0.980402220941968</v>
+        <v>0.934047477707959</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0195977790580317</v>
+        <v>0.0659525222920406</v>
       </c>
     </row>
     <row r="93">
@@ -8310,10 +8310,10 @@
         <v>18</v>
       </c>
       <c r="C93" t="n">
-        <v>0.96955485605966</v>
+        <v>0.980402220941968</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0304451439403403</v>
+        <v>0.0195977790580317</v>
       </c>
     </row>
     <row r="94">
@@ -8408,10 +8408,10 @@
         <v>14</v>
       </c>
       <c r="C100" t="n">
-        <v>0.870429927305026</v>
+        <v>0.969730703158455</v>
       </c>
       <c r="D100" t="n">
-        <v>0.129570072694974</v>
+        <v>0.0302692968415452</v>
       </c>
     </row>
     <row r="101">
@@ -8422,10 +8422,10 @@
         <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>0.907623514791299</v>
+        <v>0.870429927305026</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0923764852087011</v>
+        <v>0.129570072694974</v>
       </c>
     </row>
     <row r="102">
@@ -8436,10 +8436,10 @@
         <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>0.935372295456264</v>
+        <v>0.907623514791299</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0646277045437362</v>
+        <v>0.0923764852087011</v>
       </c>
     </row>
     <row r="103">
@@ -8450,10 +8450,10 @@
         <v>17</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9824400802884</v>
+        <v>0.935372295456264</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0175599197115995</v>
+        <v>0.0646277045437362</v>
       </c>
     </row>
     <row r="104">
@@ -8464,10 +8464,10 @@
         <v>18</v>
       </c>
       <c r="C104" t="n">
-        <v>0.969730703158455</v>
+        <v>0.9824400802884</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0302692968415452</v>
+        <v>0.0175599197115995</v>
       </c>
     </row>
     <row r="105">
@@ -8576,10 +8576,10 @@
         <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>0.871924493774947</v>
+        <v>0.970339597565925</v>
       </c>
       <c r="D112" t="n">
-        <v>0.128075506225053</v>
+        <v>0.0296604024340753</v>
       </c>
     </row>
     <row r="113">
@@ -8590,10 +8590,10 @@
         <v>15</v>
       </c>
       <c r="C113" t="n">
-        <v>0.912853675627557</v>
+        <v>0.871924493774947</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0871463243724426</v>
+        <v>0.128075506225053</v>
       </c>
     </row>
     <row r="114">
@@ -8604,10 +8604,10 @@
         <v>16</v>
       </c>
       <c r="C114" t="n">
-        <v>0.936155226973302</v>
+        <v>0.912853675627557</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0638447730266977</v>
+        <v>0.0871463243724426</v>
       </c>
     </row>
     <row r="115">
@@ -8618,10 +8618,10 @@
         <v>17</v>
       </c>
       <c r="C115" t="n">
-        <v>0.982492383417433</v>
+        <v>0.936155226973302</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0175076165825672</v>
+        <v>0.0638447730266977</v>
       </c>
     </row>
     <row r="116">
@@ -8632,10 +8632,10 @@
         <v>18</v>
       </c>
       <c r="C116" t="n">
-        <v>0.970339597565925</v>
+        <v>0.982492383417433</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0296604024340753</v>
+        <v>0.0175076165825672</v>
       </c>
     </row>
     <row r="117">
@@ -8744,10 +8744,10 @@
         <v>14</v>
       </c>
       <c r="C124" t="n">
-        <v>0.868559961994633</v>
+        <v>0.972861188224618</v>
       </c>
       <c r="D124" t="n">
-        <v>0.131440038005367</v>
+        <v>0.0271388117753822</v>
       </c>
     </row>
     <row r="125">
@@ -8758,10 +8758,10 @@
         <v>15</v>
       </c>
       <c r="C125" t="n">
-        <v>0.912443119652806</v>
+        <v>0.868559961994633</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0875568803471942</v>
+        <v>0.131440038005367</v>
       </c>
     </row>
     <row r="126">
@@ -8772,10 +8772,10 @@
         <v>16</v>
       </c>
       <c r="C126" t="n">
-        <v>0.934959075891209</v>
+        <v>0.912443119652806</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0650409241087907</v>
+        <v>0.0875568803471942</v>
       </c>
     </row>
     <row r="127">
@@ -8786,10 +8786,10 @@
         <v>17</v>
       </c>
       <c r="C127" t="n">
-        <v>0.982458081774002</v>
+        <v>0.934959075891209</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0175419182259979</v>
+        <v>0.0650409241087907</v>
       </c>
     </row>
     <row r="128">
@@ -8800,10 +8800,10 @@
         <v>18</v>
       </c>
       <c r="C128" t="n">
-        <v>0.972861188224618</v>
+        <v>0.982458081774002</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0271388117753822</v>
+        <v>0.0175419182259979</v>
       </c>
     </row>
     <row r="129">
